--- a/专利查询和搜集/已处理/全部数据.xlsx
+++ b/专利查询和搜集/已处理/全部数据.xlsx
@@ -85,12 +85,12 @@
     <t xml:space="preserve">potted plant hanger </t>
   </si>
   <si>
+    <t xml:space="preserve">potted plant holder </t>
+  </si>
+  <si>
     <t xml:space="preserve">swivel plant hanger </t>
   </si>
   <si>
-    <t xml:space="preserve">potted plant holder </t>
-  </si>
-  <si>
     <t xml:space="preserve">corolla plant hanger </t>
   </si>
   <si>
@@ -133,21 +133,21 @@
     <t xml:space="preserve">formable tubular product </t>
   </si>
   <si>
+    <t xml:space="preserve">weight-responsive hanger </t>
+  </si>
+  <si>
     <t xml:space="preserve">wall pillar plant hanger </t>
   </si>
   <si>
-    <t xml:space="preserve">weight-responsive hanger </t>
+    <t xml:space="preserve">pole garden and fountain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">retractable plant hanger </t>
   </si>
   <si>
     <t xml:space="preserve">hanger for potted plants </t>
   </si>
   <si>
-    <t xml:space="preserve">retractable plant hanger </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pole garden and fountain </t>
-  </si>
-  <si>
     <t xml:space="preserve">interlocking plant mobile </t>
   </si>
   <si>
@@ -184,15 +184,15 @@
     <t xml:space="preserve">multi-position plant hanger </t>
   </si>
   <si>
+    <t xml:space="preserve">potted plant hanger assembly </t>
+  </si>
+  <si>
     <t xml:space="preserve">teardrop-shaped plant hanger </t>
   </si>
   <si>
     <t xml:space="preserve">apparatus for hanging plants </t>
   </si>
   <si>
-    <t xml:space="preserve">potted plant hanger assembly </t>
-  </si>
-  <si>
     <t xml:space="preserve">suspendable blow dryer holder </t>
   </si>
   <si>
@@ -226,24 +226,24 @@
     <t xml:space="preserve">method of hanging a clay flowerpot </t>
   </si>
   <si>
+    <t xml:space="preserve">towel holder for shower enclosures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceiling patch apparatus and method </t>
+  </si>
+  <si>
     <t xml:space="preserve">rimmed container mounting assembly </t>
   </si>
   <si>
     <t xml:space="preserve">decorative article forming support </t>
   </si>
   <si>
-    <t xml:space="preserve">ceiling patch apparatus and method </t>
+    <t xml:space="preserve">solar-powered hanging basket light </t>
   </si>
   <si>
     <t xml:space="preserve">adjustably orientable plant hanger </t>
   </si>
   <si>
-    <t xml:space="preserve">solar-powered hanging basket light </t>
-  </si>
-  <si>
-    <t xml:space="preserve">towel holder for shower enclosures </t>
-  </si>
-  <si>
     <t xml:space="preserve">support structure for hanging plants </t>
   </si>
   <si>
@@ -274,12 +274,12 @@
     <t xml:space="preserve">supporting system for patio deck accessories </t>
   </si>
   <si>
+    <t xml:space="preserve">self-contained plant watering apparatus system </t>
+  </si>
+  <si>
     <t xml:space="preserve">adjustable tie assembly for structural members </t>
   </si>
   <si>
-    <t xml:space="preserve">self-contained plant watering apparatus system </t>
-  </si>
-  <si>
     <t xml:space="preserve">plant over-watering protective drainage article </t>
   </si>
   <si>
@@ -295,15 +295,15 @@
     <t xml:space="preserve">landscaper trellis with integrated light and plant hanger </t>
   </si>
   <si>
+    <t xml:space="preserve">apparatus for carrying plural plants to a watering station </t>
+  </si>
+  <si>
+    <t xml:space="preserve">methods and apparatus for vertical hanging plant container </t>
+  </si>
+  <si>
     <t xml:space="preserve">kit and components for constructing decorative polyhedrals </t>
   </si>
   <si>
-    <t xml:space="preserve">apparatus for carrying plural plants to a watering station </t>
-  </si>
-  <si>
-    <t xml:space="preserve">methods and apparatus for vertical hanging plant container </t>
-  </si>
-  <si>
     <t xml:space="preserve">telescopic light base for coupling to diverse plant containers </t>
   </si>
   <si>
@@ -331,99 +331,99 @@
     <t>https://pdfpiw.uspto.gov/36/304/062/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/92/007/D03/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/41/095/D03/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/46/101/D03/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/09/198/D04/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/06/224/D08/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/14/910/D07/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/65/481/D03/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/22/878/D08/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/74/202/050/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/77/793/047/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/74/202/050/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/22/878/D08/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/14/910/D07/1.pdf</t>
+    <t>https://pdfpiw.uspto.gov/02/742/D02/1.pdf</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/02/007/D03/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/06/224/D08/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/09/198/D04/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/46/101/D03/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/41/095/D03/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/92/007/D03/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/65/481/D03/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/86/194/D08/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/40/716/D02/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/40/368/D04/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/37/117/D04/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/75/114/048/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/66/153/D04/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/15/661/046/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/58/712/D02/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/43/329/D04/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/59/526/D06/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/18/991/062/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/20/633/D04/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/42/135/D06/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/73/628/042/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/12/509/D03/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/02/742/D02/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/40/716/D02/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/58/712/D02/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/73/628/042/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/42/135/D06/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/20/633/D04/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/18/991/062/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/59/526/D06/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/40/368/D04/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/43/329/D04/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/15/661/046/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/66/153/D04/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/75/114/048/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/37/117/D04/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/98/416/069/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/51/579/107/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/49/918/081/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/65/387/106/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/51/579/107/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/49/918/081/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/25/816/053/1.pdf</t>
   </si>
   <si>
@@ -448,6 +448,12 @@
     <t>https://pdfpiw.uspto.gov/60/061/D05/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/54/614/D02/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/46/268/098/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/87/055/D03/1.pdf</t>
   </si>
   <si>
@@ -457,12 +463,6 @@
     <t>https://pdfpiw.uspto.gov/12/010/D03/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/54/614/D02/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/46/268/098/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/36/877/072/1.pdf</t>
   </si>
   <si>
@@ -508,21 +508,21 @@
     <t>https://pdfpiw.uspto.gov/17/551/064/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/69/798/050/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/67/448/D03/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/69/798/050/1.pdf</t>
+    <t>https://pdfpiw.uspto.gov/62/986/055/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/96/707/D02/1.pdf</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/75/064/045/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/96/707/D02/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/62/986/055/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/01/900/052/1.pdf</t>
   </si>
   <si>
@@ -559,15 +559,15 @@
     <t>https://pdfpiw.uspto.gov/25/560/D08/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/47/323/070/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/20/897/D05/1.pdf</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/18/075/091/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/47/323/070/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/27/208/080/1.pdf</t>
   </si>
   <si>
@@ -604,24 +604,24 @@
     <t>https://pdfpiw.uspto.gov/24/038/060/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/12/797/049/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/37/213/041/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/55/735/058/1.pdf</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/61/450/040/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/37/213/041/1.pdf</t>
+    <t>https://pdfpiw.uspto.gov/15/642/087/1.pdf</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/16/379/043/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/15/642/087/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/12/797/049/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/43/707/077/1.pdf</t>
   </si>
   <si>
@@ -652,15 +652,15 @@
     <t>https://pdfpiw.uspto.gov/26/038/060/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/30/546/101/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/97/090/103/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/70/481/106/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/30/546/101/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/97/090/103/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/97/486/067/1.pdf</t>
   </si>
   <si>
@@ -676,15 +676,15 @@
     <t>https://pdfpiw.uspto.gov/60/878/075/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/92/479/045/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/56/264/092/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/38/867/040/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/92/479/045/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/56/264/092/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/87/994/076/1.pdf</t>
   </si>
   <si>
@@ -712,99 +712,99 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06230436</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0300792</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0309541</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0310146</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0419809</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0822406</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0791014</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0348165</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0887822</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05020274</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04779377</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05020274</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0887822</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0791014</t>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0274202</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0300702</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0822406</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0419809</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0310146</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0309541</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0300792</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0348165</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0819486</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0271640</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0436840</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0411737</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04811475</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0415366</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04666115</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0271258</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0432943</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0652659</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=06299118</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0463320</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0613542</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04262873</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0350912</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0274202</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0271640</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0271258</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04262873</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0613542</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0463320</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=06299118</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0652659</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0436840</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0432943</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04666115</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0415366</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04811475</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0411737</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06941698</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=10757951</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=08191849</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=10638765</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=10757951</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=08191849</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05381625</t>
   </si>
   <si>
@@ -829,6 +829,12 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0506160</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0261454</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=09826846</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0305587</t>
   </si>
   <si>
@@ -838,12 +844,6 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0301012</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0261454</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=09826846</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=07287736</t>
   </si>
   <si>
@@ -889,21 +889,21 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06455117</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05079869</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0344867</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05079869</t>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05598662</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0270796</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04506475</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0270796</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05598662</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05290001</t>
   </si>
   <si>
@@ -940,15 +940,15 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0856025</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=07032347</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0589720</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=09107518</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=07032347</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=08020827</t>
   </si>
   <si>
@@ -985,24 +985,24 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06003824</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04979712</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04121337</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05873555</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04045061</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04121337</t>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=08764215</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04337916</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=08764215</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04979712</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=07770743</t>
   </si>
   <si>
@@ -1033,15 +1033,15 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06003826</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=10154630</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=10309097</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=10648170</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=10154630</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=10309097</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06748697</t>
   </si>
   <si>
@@ -1057,15 +1057,15 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=07587860</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04547992</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=09226456</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04086738</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04547992</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=09226456</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=07699487</t>
   </si>
   <si>
@@ -1093,99 +1093,99 @@
     <t>6230436</t>
   </si>
   <si>
+    <t>D300792</t>
+  </si>
+  <si>
+    <t>D309541</t>
+  </si>
+  <si>
+    <t>D310146</t>
+  </si>
+  <si>
+    <t>D419809</t>
+  </si>
+  <si>
+    <t>D822406</t>
+  </si>
+  <si>
+    <t>D791014</t>
+  </si>
+  <si>
+    <t>D348165</t>
+  </si>
+  <si>
+    <t>D887822</t>
+  </si>
+  <si>
+    <t>5020274</t>
+  </si>
+  <si>
     <t>4779377</t>
   </si>
   <si>
-    <t>5020274</t>
-  </si>
-  <si>
-    <t>D887822</t>
-  </si>
-  <si>
-    <t>D791014</t>
+    <t>D274202</t>
   </si>
   <si>
     <t>D300702</t>
   </si>
   <si>
-    <t>D822406</t>
-  </si>
-  <si>
-    <t>D419809</t>
-  </si>
-  <si>
-    <t>D310146</t>
-  </si>
-  <si>
-    <t>D309541</t>
-  </si>
-  <si>
-    <t>D300792</t>
-  </si>
-  <si>
-    <t>D348165</t>
-  </si>
-  <si>
     <t>D819486</t>
   </si>
   <si>
+    <t>D271640</t>
+  </si>
+  <si>
+    <t>D436840</t>
+  </si>
+  <si>
+    <t>D411737</t>
+  </si>
+  <si>
+    <t>4811475</t>
+  </si>
+  <si>
+    <t>D415366</t>
+  </si>
+  <si>
+    <t>4666115</t>
+  </si>
+  <si>
+    <t>D271258</t>
+  </si>
+  <si>
+    <t>D432943</t>
+  </si>
+  <si>
+    <t>D652659</t>
+  </si>
+  <si>
+    <t>6299118</t>
+  </si>
+  <si>
+    <t>D463320</t>
+  </si>
+  <si>
+    <t>D613542</t>
+  </si>
+  <si>
+    <t>4262873</t>
+  </si>
+  <si>
     <t>D350912</t>
   </si>
   <si>
-    <t>D274202</t>
-  </si>
-  <si>
-    <t>D271640</t>
-  </si>
-  <si>
-    <t>D271258</t>
-  </si>
-  <si>
-    <t>4262873</t>
-  </si>
-  <si>
-    <t>D613542</t>
-  </si>
-  <si>
-    <t>D463320</t>
-  </si>
-  <si>
-    <t>6299118</t>
-  </si>
-  <si>
-    <t>D652659</t>
-  </si>
-  <si>
-    <t>D436840</t>
-  </si>
-  <si>
-    <t>D432943</t>
-  </si>
-  <si>
-    <t>4666115</t>
-  </si>
-  <si>
-    <t>D415366</t>
-  </si>
-  <si>
-    <t>4811475</t>
-  </si>
-  <si>
-    <t>D411737</t>
-  </si>
-  <si>
     <t>6941698</t>
   </si>
   <si>
+    <t>10757951</t>
+  </si>
+  <si>
+    <t>8191849</t>
+  </si>
+  <si>
     <t>10638765</t>
   </si>
   <si>
-    <t>10757951</t>
-  </si>
-  <si>
-    <t>8191849</t>
-  </si>
-  <si>
     <t>5381625</t>
   </si>
   <si>
@@ -1210,6 +1210,12 @@
     <t>D506160</t>
   </si>
   <si>
+    <t>D261454</t>
+  </si>
+  <si>
+    <t>9826846</t>
+  </si>
+  <si>
     <t>D305587</t>
   </si>
   <si>
@@ -1219,12 +1225,6 @@
     <t>D301012</t>
   </si>
   <si>
-    <t>D261454</t>
-  </si>
-  <si>
-    <t>9826846</t>
-  </si>
-  <si>
     <t>7287736</t>
   </si>
   <si>
@@ -1270,21 +1270,21 @@
     <t>6455117</t>
   </si>
   <si>
+    <t>5079869</t>
+  </si>
+  <si>
     <t>D344867</t>
   </si>
   <si>
-    <t>5079869</t>
+    <t>5598662</t>
+  </si>
+  <si>
+    <t>D270796</t>
   </si>
   <si>
     <t>4506475</t>
   </si>
   <si>
-    <t>D270796</t>
-  </si>
-  <si>
-    <t>5598662</t>
-  </si>
-  <si>
     <t>5290001</t>
   </si>
   <si>
@@ -1321,15 +1321,15 @@
     <t>D856025</t>
   </si>
   <si>
+    <t>7032347</t>
+  </si>
+  <si>
     <t>D589720</t>
   </si>
   <si>
     <t>9107518</t>
   </si>
   <si>
-    <t>7032347</t>
-  </si>
-  <si>
     <t>8020827</t>
   </si>
   <si>
@@ -1366,24 +1366,24 @@
     <t>6003824</t>
   </si>
   <si>
+    <t>4979712</t>
+  </si>
+  <si>
+    <t>4121337</t>
+  </si>
+  <si>
     <t>5873555</t>
   </si>
   <si>
     <t>4045061</t>
   </si>
   <si>
-    <t>4121337</t>
+    <t>8764215</t>
   </si>
   <si>
     <t>4337916</t>
   </si>
   <si>
-    <t>8764215</t>
-  </si>
-  <si>
-    <t>4979712</t>
-  </si>
-  <si>
     <t>7770743</t>
   </si>
   <si>
@@ -1414,15 +1414,15 @@
     <t>6003826</t>
   </si>
   <si>
+    <t>10154630</t>
+  </si>
+  <si>
+    <t>10309097</t>
+  </si>
+  <si>
     <t>10648170</t>
   </si>
   <si>
-    <t>10154630</t>
-  </si>
-  <si>
-    <t>10309097</t>
-  </si>
-  <si>
     <t>6748697</t>
   </si>
   <si>
@@ -1438,15 +1438,15 @@
     <t>7587860</t>
   </si>
   <si>
+    <t>4547992</t>
+  </si>
+  <si>
+    <t>9226456</t>
+  </si>
+  <si>
     <t>4086738</t>
   </si>
   <si>
-    <t>4547992</t>
-  </si>
-  <si>
-    <t>9226456</t>
-  </si>
-  <si>
     <t>7699487</t>
   </si>
   <si>
@@ -1465,87 +1465,87 @@
     <t>png_get/4235407.png</t>
   </si>
   <si>
+    <t>png_get/D300792.png</t>
+  </si>
+  <si>
+    <t>png_get/D309541.png</t>
+  </si>
+  <si>
+    <t>png_get/D310146.png</t>
+  </si>
+  <si>
+    <t>png_get/D419809.png</t>
+  </si>
+  <si>
+    <t>png_get/D822406.png</t>
+  </si>
+  <si>
+    <t>png_get/D791014.png</t>
+  </si>
+  <si>
+    <t>png_get/D348165.png</t>
+  </si>
+  <si>
+    <t>png_get/D887822.png</t>
+  </si>
+  <si>
+    <t>png_get/5020274.png</t>
+  </si>
+  <si>
     <t>png_get/4779377.png</t>
   </si>
   <si>
-    <t>png_get/5020274.png</t>
-  </si>
-  <si>
-    <t>png_get/D887822.png</t>
-  </si>
-  <si>
-    <t>png_get/D791014.png</t>
+    <t>png_get/D274202.png</t>
   </si>
   <si>
     <t>png_get/D300702.png</t>
   </si>
   <si>
-    <t>png_get/D822406.png</t>
-  </si>
-  <si>
-    <t>png_get/D419809.png</t>
-  </si>
-  <si>
-    <t>png_get/D310146.png</t>
-  </si>
-  <si>
-    <t>png_get/D309541.png</t>
-  </si>
-  <si>
-    <t>png_get/D300792.png</t>
-  </si>
-  <si>
-    <t>png_get/D348165.png</t>
-  </si>
-  <si>
     <t>png_get/D819486.png</t>
   </si>
   <si>
+    <t>png_get/D271640.png</t>
+  </si>
+  <si>
+    <t>png_get/D436840.png</t>
+  </si>
+  <si>
+    <t>png_get/D411737.png</t>
+  </si>
+  <si>
+    <t>png_get/4811475.png</t>
+  </si>
+  <si>
+    <t>png_get/D415366.png</t>
+  </si>
+  <si>
+    <t>png_get/4666115.png</t>
+  </si>
+  <si>
+    <t>png_get/D271258.png</t>
+  </si>
+  <si>
+    <t>png_get/D432943.png</t>
+  </si>
+  <si>
+    <t>png_get/D652659.png</t>
+  </si>
+  <si>
+    <t>png_get/6299118.png</t>
+  </si>
+  <si>
+    <t>png_get/D463320.png</t>
+  </si>
+  <si>
+    <t>png_get/D613542.png</t>
+  </si>
+  <si>
+    <t>png_get/4262873.png</t>
+  </si>
+  <si>
     <t>png_get/D350912.png</t>
   </si>
   <si>
-    <t>png_get/D274202.png</t>
-  </si>
-  <si>
-    <t>png_get/D271640.png</t>
-  </si>
-  <si>
-    <t>png_get/D271258.png</t>
-  </si>
-  <si>
-    <t>png_get/4262873.png</t>
-  </si>
-  <si>
-    <t>png_get/D613542.png</t>
-  </si>
-  <si>
-    <t>png_get/D463320.png</t>
-  </si>
-  <si>
-    <t>png_get/6299118.png</t>
-  </si>
-  <si>
-    <t>png_get/D652659.png</t>
-  </si>
-  <si>
-    <t>png_get/D436840.png</t>
-  </si>
-  <si>
-    <t>png_get/D432943.png</t>
-  </si>
-  <si>
-    <t>png_get/4666115.png</t>
-  </si>
-  <si>
-    <t>png_get/D415366.png</t>
-  </si>
-  <si>
-    <t>png_get/4811475.png</t>
-  </si>
-  <si>
-    <t>png_get/D411737.png</t>
-  </si>
-  <si>
     <t>png_get/6941698.png</t>
   </si>
   <si>
@@ -1561,6 +1561,12 @@
     <t>png_get/D506160.png</t>
   </si>
   <si>
+    <t>png_get/D261454.png</t>
+  </si>
+  <si>
+    <t>png_get/9826846.png</t>
+  </si>
+  <si>
     <t>png_get/D305587.png</t>
   </si>
   <si>
@@ -1570,12 +1576,6 @@
     <t>png_get/D301012.png</t>
   </si>
   <si>
-    <t>png_get/D261454.png</t>
-  </si>
-  <si>
-    <t>png_get/9826846.png</t>
-  </si>
-  <si>
     <t>png_get/7287736.png</t>
   </si>
   <si>
@@ -1612,10 +1612,10 @@
     <t>png_get/D856025.png</t>
   </si>
   <si>
+    <t>png_get/7032347.png</t>
+  </si>
+  <si>
     <t>png_get/D589720.png</t>
-  </si>
-  <si>
-    <t>png_get/7032347.png</t>
   </si>
   <si>
     <t>png_get/4337916.png</t>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>124</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>127</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>134</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>135</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>147</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>148</v>
@@ -3063,9 +3063,6 @@
       <c r="D65" t="s">
         <v>418</v>
       </c>
-      <c r="E65" t="s">
-        <v>526</v>
-      </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
@@ -3080,6 +3077,9 @@
       <c r="D66" t="s">
         <v>419</v>
       </c>
+      <c r="E66" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
@@ -3336,6 +3336,9 @@
       <c r="D83" t="s">
         <v>436</v>
       </c>
+      <c r="E83" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
@@ -3350,9 +3353,6 @@
       <c r="D84" t="s">
         <v>437</v>
       </c>
-      <c r="E84" t="s">
-        <v>533</v>
-      </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
@@ -3577,9 +3577,6 @@
       <c r="D100" t="s">
         <v>453</v>
       </c>
-      <c r="E100" t="s">
-        <v>534</v>
-      </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
@@ -3608,6 +3605,9 @@
       <c r="D102" t="s">
         <v>455</v>
       </c>
+      <c r="E102" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
@@ -3785,7 +3785,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>214</v>

--- a/专利查询和搜集/已处理/全部数据.xlsx
+++ b/专利查询和搜集/已处理/全部数据.xlsx
@@ -52,12 +52,12 @@
     <t xml:space="preserve">object hanger </t>
   </si>
   <si>
+    <t xml:space="preserve">adjustable hook </t>
+  </si>
+  <si>
     <t xml:space="preserve">openwork fabric </t>
   </si>
   <si>
-    <t xml:space="preserve">adjustable hook </t>
-  </si>
-  <si>
     <t xml:space="preserve">flowering planter </t>
   </si>
   <si>
@@ -82,15 +82,15 @@
     <t xml:space="preserve">multi-plant hanger </t>
   </si>
   <si>
+    <t xml:space="preserve">swivel plant hanger </t>
+  </si>
+  <si>
     <t xml:space="preserve">potted plant hanger </t>
   </si>
   <si>
     <t xml:space="preserve">potted plant holder </t>
   </si>
   <si>
-    <t xml:space="preserve">swivel plant hanger </t>
-  </si>
-  <si>
     <t xml:space="preserve">corolla plant hanger </t>
   </si>
   <si>
@@ -133,21 +133,21 @@
     <t xml:space="preserve">formable tubular product </t>
   </si>
   <si>
+    <t xml:space="preserve">wall pillar plant hanger </t>
+  </si>
+  <si>
     <t xml:space="preserve">weight-responsive hanger </t>
   </si>
   <si>
-    <t xml:space="preserve">wall pillar plant hanger </t>
+    <t xml:space="preserve">hanger for potted plants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">retractable plant hanger </t>
   </si>
   <si>
     <t xml:space="preserve">pole garden and fountain </t>
   </si>
   <si>
-    <t xml:space="preserve">retractable plant hanger </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hanger for potted plants </t>
-  </si>
-  <si>
     <t xml:space="preserve">interlocking plant mobile </t>
   </si>
   <si>
@@ -184,15 +184,15 @@
     <t xml:space="preserve">multi-position plant hanger </t>
   </si>
   <si>
+    <t xml:space="preserve">apparatus for hanging plants </t>
+  </si>
+  <si>
     <t xml:space="preserve">potted plant hanger assembly </t>
   </si>
   <si>
     <t xml:space="preserve">teardrop-shaped plant hanger </t>
   </si>
   <si>
-    <t xml:space="preserve">apparatus for hanging plants </t>
-  </si>
-  <si>
     <t xml:space="preserve">suspendable blow dryer holder </t>
   </si>
   <si>
@@ -226,24 +226,24 @@
     <t xml:space="preserve">method of hanging a clay flowerpot </t>
   </si>
   <si>
+    <t xml:space="preserve">adjustably orientable plant hanger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rimmed container mounting assembly </t>
+  </si>
+  <si>
     <t xml:space="preserve">towel holder for shower enclosures </t>
   </si>
   <si>
     <t xml:space="preserve">ceiling patch apparatus and method </t>
   </si>
   <si>
-    <t xml:space="preserve">rimmed container mounting assembly </t>
+    <t xml:space="preserve">solar-powered hanging basket light </t>
   </si>
   <si>
     <t xml:space="preserve">decorative article forming support </t>
   </si>
   <si>
-    <t xml:space="preserve">solar-powered hanging basket light </t>
-  </si>
-  <si>
-    <t xml:space="preserve">adjustably orientable plant hanger </t>
-  </si>
-  <si>
     <t xml:space="preserve">support structure for hanging plants </t>
   </si>
   <si>
@@ -274,12 +274,12 @@
     <t xml:space="preserve">supporting system for patio deck accessories </t>
   </si>
   <si>
+    <t xml:space="preserve">adjustable tie assembly for structural members </t>
+  </si>
+  <si>
     <t xml:space="preserve">self-contained plant watering apparatus system </t>
   </si>
   <si>
-    <t xml:space="preserve">adjustable tie assembly for structural members </t>
-  </si>
-  <si>
     <t xml:space="preserve">plant over-watering protective drainage article </t>
   </si>
   <si>
@@ -295,15 +295,15 @@
     <t xml:space="preserve">landscaper trellis with integrated light and plant hanger </t>
   </si>
   <si>
+    <t xml:space="preserve">methods and apparatus for vertical hanging plant container </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kit and components for constructing decorative polyhedrals </t>
+  </si>
+  <si>
     <t xml:space="preserve">apparatus for carrying plural plants to a watering station </t>
   </si>
   <si>
-    <t xml:space="preserve">methods and apparatus for vertical hanging plant container </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kit and components for constructing decorative polyhedrals </t>
-  </si>
-  <si>
     <t xml:space="preserve">telescopic light base for coupling to diverse plant containers </t>
   </si>
   <si>
@@ -331,99 +331,99 @@
     <t>https://pdfpiw.uspto.gov/36/304/062/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/77/793/047/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/74/202/050/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/22/878/D08/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/65/481/D03/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/14/910/D07/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/09/198/D04/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/02/742/D02/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/46/101/D03/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/41/095/D03/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/92/007/D03/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/41/095/D03/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/46/101/D03/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/09/198/D04/1.pdf</t>
+    <t>https://pdfpiw.uspto.gov/40/716/D02/1.pdf</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/06/224/D08/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/14/910/D07/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/65/481/D03/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/22/878/D08/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/74/202/050/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/77/793/047/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/02/742/D02/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/02/007/D03/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/40/368/D04/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/59/526/D06/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/12/509/D03/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/73/628/042/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/42/135/D06/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/20/633/D04/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/37/117/D04/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/18/991/062/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/43/329/D04/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/58/712/D02/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/15/661/046/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/66/153/D04/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/75/114/048/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/86/194/D08/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/40/716/D02/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/40/368/D04/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/37/117/D04/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/75/114/048/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/66/153/D04/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/15/661/046/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/58/712/D02/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/43/329/D04/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/59/526/D06/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/18/991/062/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/20/633/D04/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/42/135/D06/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/73/628/042/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/12/509/D03/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/98/416/069/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/49/918/081/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/65/387/106/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/51/579/107/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/49/918/081/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/65/387/106/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/25/816/053/1.pdf</t>
   </si>
   <si>
@@ -448,6 +448,12 @@
     <t>https://pdfpiw.uspto.gov/60/061/D05/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/83/984/040/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/12/010/D03/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/54/614/D02/1.pdf</t>
   </si>
   <si>
@@ -457,12 +463,6 @@
     <t>https://pdfpiw.uspto.gov/87/055/D03/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/83/984/040/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/12/010/D03/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/36/877/072/1.pdf</t>
   </si>
   <si>
@@ -508,21 +508,21 @@
     <t>https://pdfpiw.uspto.gov/17/551/064/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/67/448/D03/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/69/798/050/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/67/448/D03/1.pdf</t>
+    <t>https://pdfpiw.uspto.gov/75/064/045/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/96/707/D02/1.pdf</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/62/986/055/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/96/707/D02/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/75/064/045/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/01/900/052/1.pdf</t>
   </si>
   <si>
@@ -559,15 +559,15 @@
     <t>https://pdfpiw.uspto.gov/25/560/D08/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/18/075/091/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/47/323/070/1.pdf</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/20/897/D05/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/18/075/091/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/27/208/080/1.pdf</t>
   </si>
   <si>
@@ -604,24 +604,24 @@
     <t>https://pdfpiw.uspto.gov/24/038/060/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/16/379/043/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/55/735/058/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/12/797/049/1.pdf</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/37/213/041/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/55/735/058/1.pdf</t>
+    <t>https://pdfpiw.uspto.gov/15/642/087/1.pdf</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/61/450/040/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/15/642/087/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/16/379/043/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/43/707/077/1.pdf</t>
   </si>
   <si>
@@ -652,15 +652,15 @@
     <t>https://pdfpiw.uspto.gov/26/038/060/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/97/090/103/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/70/481/106/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/30/546/101/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/97/090/103/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/70/481/106/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/97/486/067/1.pdf</t>
   </si>
   <si>
@@ -676,15 +676,15 @@
     <t>https://pdfpiw.uspto.gov/60/878/075/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/56/264/092/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/38/867/040/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/92/479/045/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/56/264/092/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/38/867/040/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/87/994/076/1.pdf</t>
   </si>
   <si>
@@ -712,99 +712,99 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06230436</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04779377</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05020274</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0887822</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0348165</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0791014</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0419809</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0274202</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0310146</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0309541</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0300792</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0309541</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0310146</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0419809</t>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0271640</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0822406</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0791014</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0348165</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0887822</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05020274</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04779377</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0274202</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0300702</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0436840</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0652659</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0350912</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04262873</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0613542</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0463320</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0411737</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=06299118</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0432943</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0271258</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04666115</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0415366</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04811475</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0819486</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0271640</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0436840</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0411737</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04811475</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0415366</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04666115</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0271258</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0432943</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0652659</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=06299118</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0463320</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0613542</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04262873</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0350912</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06941698</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=08191849</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=10638765</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=10757951</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=08191849</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=10638765</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05381625</t>
   </si>
   <si>
@@ -829,6 +829,12 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0506160</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04098483</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0301012</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0261454</t>
   </si>
   <si>
@@ -838,12 +844,6 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0305587</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04098483</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0301012</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=07287736</t>
   </si>
   <si>
@@ -889,21 +889,21 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06455117</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0344867</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05079869</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0344867</t>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04506475</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0270796</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05598662</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0270796</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04506475</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05290001</t>
   </si>
   <si>
@@ -940,15 +940,15 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0856025</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=09107518</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=07032347</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0589720</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=09107518</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=08020827</t>
   </si>
   <si>
@@ -985,24 +985,24 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06003824</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04337916</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05873555</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04979712</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04121337</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05873555</t>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=08764215</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04045061</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=08764215</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04337916</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=07770743</t>
   </si>
   <si>
@@ -1033,15 +1033,15 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06003826</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=10309097</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=10648170</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=10154630</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=10309097</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=10648170</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06748697</t>
   </si>
   <si>
@@ -1057,15 +1057,15 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=07587860</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=09226456</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04086738</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04547992</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=09226456</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04086738</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=07699487</t>
   </si>
   <si>
@@ -1093,99 +1093,99 @@
     <t>6230436</t>
   </si>
   <si>
+    <t>4779377</t>
+  </si>
+  <si>
+    <t>5020274</t>
+  </si>
+  <si>
+    <t>D887822</t>
+  </si>
+  <si>
+    <t>D348165</t>
+  </si>
+  <si>
+    <t>D791014</t>
+  </si>
+  <si>
+    <t>D419809</t>
+  </si>
+  <si>
+    <t>D274202</t>
+  </si>
+  <si>
+    <t>D310146</t>
+  </si>
+  <si>
+    <t>D309541</t>
+  </si>
+  <si>
     <t>D300792</t>
   </si>
   <si>
-    <t>D309541</t>
-  </si>
-  <si>
-    <t>D310146</t>
-  </si>
-  <si>
-    <t>D419809</t>
+    <t>D271640</t>
   </si>
   <si>
     <t>D822406</t>
   </si>
   <si>
-    <t>D791014</t>
-  </si>
-  <si>
-    <t>D348165</t>
-  </si>
-  <si>
-    <t>D887822</t>
-  </si>
-  <si>
-    <t>5020274</t>
-  </si>
-  <si>
-    <t>4779377</t>
-  </si>
-  <si>
-    <t>D274202</t>
-  </si>
-  <si>
     <t>D300702</t>
   </si>
   <si>
+    <t>D436840</t>
+  </si>
+  <si>
+    <t>D652659</t>
+  </si>
+  <si>
+    <t>D350912</t>
+  </si>
+  <si>
+    <t>4262873</t>
+  </si>
+  <si>
+    <t>D613542</t>
+  </si>
+  <si>
+    <t>D463320</t>
+  </si>
+  <si>
+    <t>D411737</t>
+  </si>
+  <si>
+    <t>6299118</t>
+  </si>
+  <si>
+    <t>D432943</t>
+  </si>
+  <si>
+    <t>D271258</t>
+  </si>
+  <si>
+    <t>4666115</t>
+  </si>
+  <si>
+    <t>D415366</t>
+  </si>
+  <si>
+    <t>4811475</t>
+  </si>
+  <si>
     <t>D819486</t>
   </si>
   <si>
-    <t>D271640</t>
-  </si>
-  <si>
-    <t>D436840</t>
-  </si>
-  <si>
-    <t>D411737</t>
-  </si>
-  <si>
-    <t>4811475</t>
-  </si>
-  <si>
-    <t>D415366</t>
-  </si>
-  <si>
-    <t>4666115</t>
-  </si>
-  <si>
-    <t>D271258</t>
-  </si>
-  <si>
-    <t>D432943</t>
-  </si>
-  <si>
-    <t>D652659</t>
-  </si>
-  <si>
-    <t>6299118</t>
-  </si>
-  <si>
-    <t>D463320</t>
-  </si>
-  <si>
-    <t>D613542</t>
-  </si>
-  <si>
-    <t>4262873</t>
-  </si>
-  <si>
-    <t>D350912</t>
-  </si>
-  <si>
     <t>6941698</t>
   </si>
   <si>
+    <t>8191849</t>
+  </si>
+  <si>
+    <t>10638765</t>
+  </si>
+  <si>
     <t>10757951</t>
   </si>
   <si>
-    <t>8191849</t>
-  </si>
-  <si>
-    <t>10638765</t>
-  </si>
-  <si>
     <t>5381625</t>
   </si>
   <si>
@@ -1210,6 +1210,12 @@
     <t>D506160</t>
   </si>
   <si>
+    <t>4098483</t>
+  </si>
+  <si>
+    <t>D301012</t>
+  </si>
+  <si>
     <t>D261454</t>
   </si>
   <si>
@@ -1219,12 +1225,6 @@
     <t>D305587</t>
   </si>
   <si>
-    <t>4098483</t>
-  </si>
-  <si>
-    <t>D301012</t>
-  </si>
-  <si>
     <t>7287736</t>
   </si>
   <si>
@@ -1270,21 +1270,21 @@
     <t>6455117</t>
   </si>
   <si>
+    <t>D344867</t>
+  </si>
+  <si>
     <t>5079869</t>
   </si>
   <si>
-    <t>D344867</t>
+    <t>4506475</t>
+  </si>
+  <si>
+    <t>D270796</t>
   </si>
   <si>
     <t>5598662</t>
   </si>
   <si>
-    <t>D270796</t>
-  </si>
-  <si>
-    <t>4506475</t>
-  </si>
-  <si>
     <t>5290001</t>
   </si>
   <si>
@@ -1321,15 +1321,15 @@
     <t>D856025</t>
   </si>
   <si>
+    <t>9107518</t>
+  </si>
+  <si>
     <t>7032347</t>
   </si>
   <si>
     <t>D589720</t>
   </si>
   <si>
-    <t>9107518</t>
-  </si>
-  <si>
     <t>8020827</t>
   </si>
   <si>
@@ -1366,24 +1366,24 @@
     <t>6003824</t>
   </si>
   <si>
+    <t>4337916</t>
+  </si>
+  <si>
+    <t>5873555</t>
+  </si>
+  <si>
     <t>4979712</t>
   </si>
   <si>
     <t>4121337</t>
   </si>
   <si>
-    <t>5873555</t>
+    <t>8764215</t>
   </si>
   <si>
     <t>4045061</t>
   </si>
   <si>
-    <t>8764215</t>
-  </si>
-  <si>
-    <t>4337916</t>
-  </si>
-  <si>
     <t>7770743</t>
   </si>
   <si>
@@ -1414,15 +1414,15 @@
     <t>6003826</t>
   </si>
   <si>
+    <t>10309097</t>
+  </si>
+  <si>
+    <t>10648170</t>
+  </si>
+  <si>
     <t>10154630</t>
   </si>
   <si>
-    <t>10309097</t>
-  </si>
-  <si>
-    <t>10648170</t>
-  </si>
-  <si>
     <t>6748697</t>
   </si>
   <si>
@@ -1438,15 +1438,15 @@
     <t>7587860</t>
   </si>
   <si>
+    <t>9226456</t>
+  </si>
+  <si>
+    <t>4086738</t>
+  </si>
+  <si>
     <t>4547992</t>
   </si>
   <si>
-    <t>9226456</t>
-  </si>
-  <si>
-    <t>4086738</t>
-  </si>
-  <si>
     <t>7699487</t>
   </si>
   <si>
@@ -1465,87 +1465,87 @@
     <t>png_get/4235407.png</t>
   </si>
   <si>
+    <t>png_get/4779377.png</t>
+  </si>
+  <si>
+    <t>png_get/5020274.png</t>
+  </si>
+  <si>
+    <t>png_get/D887822.png</t>
+  </si>
+  <si>
+    <t>png_get/D348165.png</t>
+  </si>
+  <si>
+    <t>png_get/D791014.png</t>
+  </si>
+  <si>
+    <t>png_get/D419809.png</t>
+  </si>
+  <si>
+    <t>png_get/D274202.png</t>
+  </si>
+  <si>
+    <t>png_get/D310146.png</t>
+  </si>
+  <si>
+    <t>png_get/D309541.png</t>
+  </si>
+  <si>
     <t>png_get/D300792.png</t>
   </si>
   <si>
-    <t>png_get/D309541.png</t>
-  </si>
-  <si>
-    <t>png_get/D310146.png</t>
-  </si>
-  <si>
-    <t>png_get/D419809.png</t>
+    <t>png_get/D271640.png</t>
   </si>
   <si>
     <t>png_get/D822406.png</t>
   </si>
   <si>
-    <t>png_get/D791014.png</t>
-  </si>
-  <si>
-    <t>png_get/D348165.png</t>
-  </si>
-  <si>
-    <t>png_get/D887822.png</t>
-  </si>
-  <si>
-    <t>png_get/5020274.png</t>
-  </si>
-  <si>
-    <t>png_get/4779377.png</t>
-  </si>
-  <si>
-    <t>png_get/D274202.png</t>
-  </si>
-  <si>
     <t>png_get/D300702.png</t>
   </si>
   <si>
+    <t>png_get/D436840.png</t>
+  </si>
+  <si>
+    <t>png_get/D652659.png</t>
+  </si>
+  <si>
+    <t>png_get/D350912.png</t>
+  </si>
+  <si>
+    <t>png_get/4262873.png</t>
+  </si>
+  <si>
+    <t>png_get/D613542.png</t>
+  </si>
+  <si>
+    <t>png_get/D463320.png</t>
+  </si>
+  <si>
+    <t>png_get/D411737.png</t>
+  </si>
+  <si>
+    <t>png_get/6299118.png</t>
+  </si>
+  <si>
+    <t>png_get/D432943.png</t>
+  </si>
+  <si>
+    <t>png_get/D271258.png</t>
+  </si>
+  <si>
+    <t>png_get/4666115.png</t>
+  </si>
+  <si>
+    <t>png_get/D415366.png</t>
+  </si>
+  <si>
+    <t>png_get/4811475.png</t>
+  </si>
+  <si>
     <t>png_get/D819486.png</t>
   </si>
   <si>
-    <t>png_get/D271640.png</t>
-  </si>
-  <si>
-    <t>png_get/D436840.png</t>
-  </si>
-  <si>
-    <t>png_get/D411737.png</t>
-  </si>
-  <si>
-    <t>png_get/4811475.png</t>
-  </si>
-  <si>
-    <t>png_get/D415366.png</t>
-  </si>
-  <si>
-    <t>png_get/4666115.png</t>
-  </si>
-  <si>
-    <t>png_get/D271258.png</t>
-  </si>
-  <si>
-    <t>png_get/D432943.png</t>
-  </si>
-  <si>
-    <t>png_get/D652659.png</t>
-  </si>
-  <si>
-    <t>png_get/6299118.png</t>
-  </si>
-  <si>
-    <t>png_get/D463320.png</t>
-  </si>
-  <si>
-    <t>png_get/D613542.png</t>
-  </si>
-  <si>
-    <t>png_get/4262873.png</t>
-  </si>
-  <si>
-    <t>png_get/D350912.png</t>
-  </si>
-  <si>
     <t>png_get/6941698.png</t>
   </si>
   <si>
@@ -1561,6 +1561,12 @@
     <t>png_get/D506160.png</t>
   </si>
   <si>
+    <t>png_get/4098483.png</t>
+  </si>
+  <si>
+    <t>png_get/D301012.png</t>
+  </si>
+  <si>
     <t>png_get/D261454.png</t>
   </si>
   <si>
@@ -1568,12 +1574,6 @@
   </si>
   <si>
     <t>png_get/D305587.png</t>
-  </si>
-  <si>
-    <t>png_get/4098483.png</t>
-  </si>
-  <si>
-    <t>png_get/D301012.png</t>
   </si>
   <si>
     <t>png_get/7287736.png</t>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>125</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>127</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>135</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>146</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>148</v>
@@ -3063,6 +3063,9 @@
       <c r="D65" t="s">
         <v>418</v>
       </c>
+      <c r="E65" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
@@ -3077,9 +3080,6 @@
       <c r="D66" t="s">
         <v>419</v>
       </c>
-      <c r="E66" t="s">
-        <v>526</v>
-      </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
@@ -3319,9 +3319,6 @@
       <c r="D82" t="s">
         <v>435</v>
       </c>
-      <c r="E82" t="s">
-        <v>532</v>
-      </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
@@ -3337,7 +3334,7 @@
         <v>436</v>
       </c>
       <c r="E83" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3353,6 +3350,9 @@
       <c r="D84" t="s">
         <v>437</v>
       </c>
+      <c r="E84" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
@@ -3535,6 +3535,9 @@
       <c r="D97" t="s">
         <v>450</v>
       </c>
+      <c r="E97" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
@@ -3605,9 +3608,6 @@
       <c r="D102" t="s">
         <v>455</v>
       </c>
-      <c r="E102" t="s">
-        <v>534</v>
-      </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
@@ -3771,7 +3771,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>213</v>

--- a/专利查询和搜集/已处理/全部数据.xlsx
+++ b/专利查询和搜集/已处理/全部数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="544">
   <si>
     <t>标题</t>
   </si>
@@ -52,12 +52,12 @@
     <t xml:space="preserve">object hanger </t>
   </si>
   <si>
+    <t xml:space="preserve">openwork fabric </t>
+  </si>
+  <si>
     <t xml:space="preserve">adjustable hook </t>
   </si>
   <si>
-    <t xml:space="preserve">openwork fabric </t>
-  </si>
-  <si>
     <t xml:space="preserve">flowering planter </t>
   </si>
   <si>
@@ -82,24 +82,24 @@
     <t xml:space="preserve">multi-plant hanger </t>
   </si>
   <si>
+    <t xml:space="preserve">potted plant hanger </t>
+  </si>
+  <si>
     <t xml:space="preserve">swivel plant hanger </t>
   </si>
   <si>
-    <t xml:space="preserve">potted plant hanger </t>
-  </si>
-  <si>
     <t xml:space="preserve">potted plant holder </t>
   </si>
   <si>
+    <t xml:space="preserve">hanging plant holder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">post and beam system </t>
+  </si>
+  <si>
     <t xml:space="preserve">corolla plant hanger </t>
   </si>
   <si>
-    <t xml:space="preserve">post and beam system </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hanging plant holder </t>
-  </si>
-  <si>
     <t xml:space="preserve">cantilever attachment </t>
   </si>
   <si>
@@ -130,24 +130,24 @@
     <t xml:space="preserve">rotating display device </t>
   </si>
   <si>
+    <t xml:space="preserve">retractable plant hanger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pole garden and fountain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hanger for potted plants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wall pillar plant hanger </t>
+  </si>
+  <si>
     <t xml:space="preserve">formable tubular product </t>
   </si>
   <si>
-    <t xml:space="preserve">wall pillar plant hanger </t>
-  </si>
-  <si>
     <t xml:space="preserve">weight-responsive hanger </t>
   </si>
   <si>
-    <t xml:space="preserve">hanger for potted plants </t>
-  </si>
-  <si>
-    <t xml:space="preserve">retractable plant hanger </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pole garden and fountain </t>
-  </si>
-  <si>
     <t xml:space="preserve">interlocking plant mobile </t>
   </si>
   <si>
@@ -184,15 +184,15 @@
     <t xml:space="preserve">multi-position plant hanger </t>
   </si>
   <si>
+    <t xml:space="preserve">potted plant hanger assembly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">teardrop-shaped plant hanger </t>
+  </si>
+  <si>
     <t xml:space="preserve">apparatus for hanging plants </t>
   </si>
   <si>
-    <t xml:space="preserve">potted plant hanger assembly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">teardrop-shaped plant hanger </t>
-  </si>
-  <si>
     <t xml:space="preserve">suspendable blow dryer holder </t>
   </si>
   <si>
@@ -223,27 +223,27 @@
     <t xml:space="preserve">elevated plant watering apparatus </t>
   </si>
   <si>
+    <t xml:space="preserve">solar-powered hanging basket light </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rimmed container mounting assembly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">decorative article forming support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceiling patch apparatus and method </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adjustably orientable plant hanger </t>
+  </si>
+  <si>
     <t xml:space="preserve">method of hanging a clay flowerpot </t>
   </si>
   <si>
-    <t xml:space="preserve">adjustably orientable plant hanger </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rimmed container mounting assembly </t>
-  </si>
-  <si>
     <t xml:space="preserve">towel holder for shower enclosures </t>
   </si>
   <si>
-    <t xml:space="preserve">ceiling patch apparatus and method </t>
-  </si>
-  <si>
-    <t xml:space="preserve">solar-powered hanging basket light </t>
-  </si>
-  <si>
-    <t xml:space="preserve">decorative article forming support </t>
-  </si>
-  <si>
     <t xml:space="preserve">support structure for hanging plants </t>
   </si>
   <si>
@@ -274,12 +274,12 @@
     <t xml:space="preserve">supporting system for patio deck accessories </t>
   </si>
   <si>
+    <t xml:space="preserve">self-contained plant watering apparatus system </t>
+  </si>
+  <si>
     <t xml:space="preserve">adjustable tie assembly for structural members </t>
   </si>
   <si>
-    <t xml:space="preserve">self-contained plant watering apparatus system </t>
-  </si>
-  <si>
     <t xml:space="preserve">plant over-watering protective drainage article </t>
   </si>
   <si>
@@ -295,15 +295,15 @@
     <t xml:space="preserve">landscaper trellis with integrated light and plant hanger </t>
   </si>
   <si>
+    <t xml:space="preserve">apparatus for carrying plural plants to a watering station </t>
+  </si>
+  <si>
     <t xml:space="preserve">methods and apparatus for vertical hanging plant container </t>
   </si>
   <si>
     <t xml:space="preserve">kit and components for constructing decorative polyhedrals </t>
   </si>
   <si>
-    <t xml:space="preserve">apparatus for carrying plural plants to a watering station </t>
-  </si>
-  <si>
     <t xml:space="preserve">telescopic light base for coupling to diverse plant containers </t>
   </si>
   <si>
@@ -331,99 +331,99 @@
     <t>https://pdfpiw.uspto.gov/36/304/062/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/73/628/042/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/42/135/D06/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/20/633/D04/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/37/117/D04/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/18/991/062/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/58/712/D02/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/12/509/D03/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/15/661/046/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/66/153/D04/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/75/114/048/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/86/194/D08/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/43/329/D04/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/59/526/D06/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/02/007/D03/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/06/224/D08/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/40/716/D02/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/92/007/D03/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/41/095/D03/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/46/101/D03/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/02/742/D02/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/09/198/D04/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/14/910/D07/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/65/481/D03/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/22/878/D08/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/74/202/050/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/77/793/047/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/74/202/050/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/22/878/D08/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/65/481/D03/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/14/910/D07/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/09/198/D04/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/02/742/D02/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/46/101/D03/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/41/095/D03/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/92/007/D03/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/40/716/D02/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/06/224/D08/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/02/007/D03/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/40/368/D04/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/59/526/D06/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/12/509/D03/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/73/628/042/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/42/135/D06/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/20/633/D04/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/37/117/D04/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/18/991/062/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/43/329/D04/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/58/712/D02/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/15/661/046/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/66/153/D04/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/75/114/048/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/86/194/D08/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/98/416/069/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/51/579/107/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/49/918/081/1.pdf</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/65/387/106/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/51/579/107/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/25/816/053/1.pdf</t>
   </si>
   <si>
@@ -448,6 +448,9 @@
     <t>https://pdfpiw.uspto.gov/60/061/D05/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/87/055/D03/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/83/984/040/1.pdf</t>
   </si>
   <si>
@@ -460,21 +463,18 @@
     <t>https://pdfpiw.uspto.gov/46/268/098/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/87/055/D03/1.pdf</t>
+    <t>https://pdfpiw.uspto.gov/39/493/041/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/84/815/107/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/09/165/103/1.pdf</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/36/877/072/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/09/165/103/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/84/815/107/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/39/493/041/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/37/151/044/1.pdf</t>
   </si>
   <si>
@@ -505,24 +505,24 @@
     <t>https://pdfpiw.uspto.gov/40/304/062/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/96/707/D02/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/62/986/055/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/75/064/045/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/67/448/D03/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/17/551/064/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/67/448/D03/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/69/798/050/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/75/064/045/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/96/707/D02/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/62/986/055/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/01/900/052/1.pdf</t>
   </si>
   <si>
@@ -559,15 +559,15 @@
     <t>https://pdfpiw.uspto.gov/25/560/D08/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/47/323/070/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/20/897/D05/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/18/075/091/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/47/323/070/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/20/897/D05/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/27/208/080/1.pdf</t>
   </si>
   <si>
@@ -601,27 +601,27 @@
     <t>https://pdfpiw.uspto.gov/31/747/059/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/15/642/087/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/55/735/058/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/61/450/040/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/37/213/041/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/16/379/043/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/24/038/060/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/16/379/043/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/55/735/058/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/12/797/049/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/37/213/041/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/15/642/087/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/61/450/040/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/43/707/077/1.pdf</t>
   </si>
   <si>
@@ -652,15 +652,15 @@
     <t>https://pdfpiw.uspto.gov/26/038/060/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/30/546/101/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/97/090/103/1.pdf</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/70/481/106/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/30/546/101/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/97/486/067/1.pdf</t>
   </si>
   <si>
@@ -676,15 +676,15 @@
     <t>https://pdfpiw.uspto.gov/60/878/075/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/92/479/045/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/56/264/092/1.pdf</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/38/867/040/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/92/479/045/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/87/994/076/1.pdf</t>
   </si>
   <si>
@@ -712,99 +712,99 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06230436</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04262873</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0613542</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0463320</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0411737</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=06299118</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0271258</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0350912</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04666115</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0415366</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04811475</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0819486</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0432943</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0652659</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0300702</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0822406</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0271640</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0300792</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0309541</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0310146</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0274202</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0419809</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0791014</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0348165</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0887822</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05020274</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04779377</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05020274</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0887822</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0348165</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0791014</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0419809</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0274202</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0310146</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0309541</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0300792</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0271640</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0822406</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0300702</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0436840</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0652659</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0350912</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04262873</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0613542</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0463320</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0411737</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=06299118</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0432943</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0271258</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04666115</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0415366</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04811475</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0819486</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06941698</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=10757951</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=08191849</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=10638765</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=10757951</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05381625</t>
   </si>
   <si>
@@ -829,6 +829,9 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0506160</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0305587</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04098483</t>
   </si>
   <si>
@@ -841,21 +844,18 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=09826846</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0305587</t>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04149339</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=10781584</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=10316509</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=07287736</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=10316509</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=10781584</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04149339</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04415137</t>
   </si>
   <si>
@@ -886,24 +886,24 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06230440</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0270796</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05598662</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04506475</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0344867</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06455117</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0344867</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05079869</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04506475</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0270796</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05598662</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05290001</t>
   </si>
   <si>
@@ -940,15 +940,15 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0856025</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=07032347</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0589720</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=09107518</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=07032347</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0589720</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=08020827</t>
   </si>
   <si>
@@ -982,27 +982,27 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=05974731</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=08764215</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05873555</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04045061</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04121337</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04337916</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06003824</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04337916</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05873555</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04979712</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04121337</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=08764215</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04045061</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=07770743</t>
   </si>
   <si>
@@ -1033,15 +1033,15 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06003826</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=10154630</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=10309097</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=10648170</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=10154630</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06748697</t>
   </si>
   <si>
@@ -1057,15 +1057,15 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=07587860</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04547992</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=09226456</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04086738</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04547992</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=07699487</t>
   </si>
   <si>
@@ -1093,99 +1093,99 @@
     <t>6230436</t>
   </si>
   <si>
+    <t>4262873</t>
+  </si>
+  <si>
+    <t>D613542</t>
+  </si>
+  <si>
+    <t>D463320</t>
+  </si>
+  <si>
+    <t>D411737</t>
+  </si>
+  <si>
+    <t>6299118</t>
+  </si>
+  <si>
+    <t>D271258</t>
+  </si>
+  <si>
+    <t>D350912</t>
+  </si>
+  <si>
+    <t>4666115</t>
+  </si>
+  <si>
+    <t>D415366</t>
+  </si>
+  <si>
+    <t>4811475</t>
+  </si>
+  <si>
+    <t>D819486</t>
+  </si>
+  <si>
+    <t>D432943</t>
+  </si>
+  <si>
+    <t>D652659</t>
+  </si>
+  <si>
+    <t>D300702</t>
+  </si>
+  <si>
+    <t>D822406</t>
+  </si>
+  <si>
+    <t>D271640</t>
+  </si>
+  <si>
+    <t>D300792</t>
+  </si>
+  <si>
+    <t>D309541</t>
+  </si>
+  <si>
+    <t>D310146</t>
+  </si>
+  <si>
+    <t>D274202</t>
+  </si>
+  <si>
+    <t>D419809</t>
+  </si>
+  <si>
+    <t>D791014</t>
+  </si>
+  <si>
+    <t>D348165</t>
+  </si>
+  <si>
+    <t>D887822</t>
+  </si>
+  <si>
+    <t>5020274</t>
+  </si>
+  <si>
     <t>4779377</t>
   </si>
   <si>
-    <t>5020274</t>
-  </si>
-  <si>
-    <t>D887822</t>
-  </si>
-  <si>
-    <t>D348165</t>
-  </si>
-  <si>
-    <t>D791014</t>
-  </si>
-  <si>
-    <t>D419809</t>
-  </si>
-  <si>
-    <t>D274202</t>
-  </si>
-  <si>
-    <t>D310146</t>
-  </si>
-  <si>
-    <t>D309541</t>
-  </si>
-  <si>
-    <t>D300792</t>
-  </si>
-  <si>
-    <t>D271640</t>
-  </si>
-  <si>
-    <t>D822406</t>
-  </si>
-  <si>
-    <t>D300702</t>
-  </si>
-  <si>
     <t>D436840</t>
   </si>
   <si>
-    <t>D652659</t>
-  </si>
-  <si>
-    <t>D350912</t>
-  </si>
-  <si>
-    <t>4262873</t>
-  </si>
-  <si>
-    <t>D613542</t>
-  </si>
-  <si>
-    <t>D463320</t>
-  </si>
-  <si>
-    <t>D411737</t>
-  </si>
-  <si>
-    <t>6299118</t>
-  </si>
-  <si>
-    <t>D432943</t>
-  </si>
-  <si>
-    <t>D271258</t>
-  </si>
-  <si>
-    <t>4666115</t>
-  </si>
-  <si>
-    <t>D415366</t>
-  </si>
-  <si>
-    <t>4811475</t>
-  </si>
-  <si>
-    <t>D819486</t>
-  </si>
-  <si>
     <t>6941698</t>
   </si>
   <si>
+    <t>10757951</t>
+  </si>
+  <si>
     <t>8191849</t>
   </si>
   <si>
     <t>10638765</t>
   </si>
   <si>
-    <t>10757951</t>
-  </si>
-  <si>
     <t>5381625</t>
   </si>
   <si>
@@ -1210,6 +1210,9 @@
     <t>D506160</t>
   </si>
   <si>
+    <t>D305587</t>
+  </si>
+  <si>
     <t>4098483</t>
   </si>
   <si>
@@ -1222,21 +1225,18 @@
     <t>9826846</t>
   </si>
   <si>
-    <t>D305587</t>
+    <t>4149339</t>
+  </si>
+  <si>
+    <t>10781584</t>
+  </si>
+  <si>
+    <t>10316509</t>
   </si>
   <si>
     <t>7287736</t>
   </si>
   <si>
-    <t>10316509</t>
-  </si>
-  <si>
-    <t>10781584</t>
-  </si>
-  <si>
-    <t>4149339</t>
-  </si>
-  <si>
     <t>4415137</t>
   </si>
   <si>
@@ -1267,24 +1267,24 @@
     <t>6230440</t>
   </si>
   <si>
+    <t>D270796</t>
+  </si>
+  <si>
+    <t>5598662</t>
+  </si>
+  <si>
+    <t>4506475</t>
+  </si>
+  <si>
+    <t>D344867</t>
+  </si>
+  <si>
     <t>6455117</t>
   </si>
   <si>
-    <t>D344867</t>
-  </si>
-  <si>
     <t>5079869</t>
   </si>
   <si>
-    <t>4506475</t>
-  </si>
-  <si>
-    <t>D270796</t>
-  </si>
-  <si>
-    <t>5598662</t>
-  </si>
-  <si>
     <t>5290001</t>
   </si>
   <si>
@@ -1321,15 +1321,15 @@
     <t>D856025</t>
   </si>
   <si>
+    <t>7032347</t>
+  </si>
+  <si>
+    <t>D589720</t>
+  </si>
+  <si>
     <t>9107518</t>
   </si>
   <si>
-    <t>7032347</t>
-  </si>
-  <si>
-    <t>D589720</t>
-  </si>
-  <si>
     <t>8020827</t>
   </si>
   <si>
@@ -1363,27 +1363,27 @@
     <t>5974731</t>
   </si>
   <si>
+    <t>8764215</t>
+  </si>
+  <si>
+    <t>5873555</t>
+  </si>
+  <si>
+    <t>4045061</t>
+  </si>
+  <si>
+    <t>4121337</t>
+  </si>
+  <si>
+    <t>4337916</t>
+  </si>
+  <si>
     <t>6003824</t>
   </si>
   <si>
-    <t>4337916</t>
-  </si>
-  <si>
-    <t>5873555</t>
-  </si>
-  <si>
     <t>4979712</t>
   </si>
   <si>
-    <t>4121337</t>
-  </si>
-  <si>
-    <t>8764215</t>
-  </si>
-  <si>
-    <t>4045061</t>
-  </si>
-  <si>
     <t>7770743</t>
   </si>
   <si>
@@ -1414,15 +1414,15 @@
     <t>6003826</t>
   </si>
   <si>
+    <t>10154630</t>
+  </si>
+  <si>
     <t>10309097</t>
   </si>
   <si>
     <t>10648170</t>
   </si>
   <si>
-    <t>10154630</t>
-  </si>
-  <si>
     <t>6748697</t>
   </si>
   <si>
@@ -1438,15 +1438,15 @@
     <t>7587860</t>
   </si>
   <si>
+    <t>4547992</t>
+  </si>
+  <si>
     <t>9226456</t>
   </si>
   <si>
     <t>4086738</t>
   </si>
   <si>
-    <t>4547992</t>
-  </si>
-  <si>
     <t>7699487</t>
   </si>
   <si>
@@ -1465,87 +1465,87 @@
     <t>png_get/4235407.png</t>
   </si>
   <si>
+    <t>png_get/4262873.png</t>
+  </si>
+  <si>
+    <t>png_get/D613542.png</t>
+  </si>
+  <si>
+    <t>png_get/D463320.png</t>
+  </si>
+  <si>
+    <t>png_get/D411737.png</t>
+  </si>
+  <si>
+    <t>png_get/6299118.png</t>
+  </si>
+  <si>
+    <t>png_get/D271258.png</t>
+  </si>
+  <si>
+    <t>png_get/D350912.png</t>
+  </si>
+  <si>
+    <t>png_get/4666115.png</t>
+  </si>
+  <si>
+    <t>png_get/D415366.png</t>
+  </si>
+  <si>
+    <t>png_get/4811475.png</t>
+  </si>
+  <si>
+    <t>png_get/D819486.png</t>
+  </si>
+  <si>
+    <t>png_get/D432943.png</t>
+  </si>
+  <si>
+    <t>png_get/D652659.png</t>
+  </si>
+  <si>
+    <t>png_get/D300702.png</t>
+  </si>
+  <si>
+    <t>png_get/D822406.png</t>
+  </si>
+  <si>
+    <t>png_get/D271640.png</t>
+  </si>
+  <si>
+    <t>png_get/D300792.png</t>
+  </si>
+  <si>
+    <t>png_get/D309541.png</t>
+  </si>
+  <si>
+    <t>png_get/D310146.png</t>
+  </si>
+  <si>
+    <t>png_get/D274202.png</t>
+  </si>
+  <si>
+    <t>png_get/D419809.png</t>
+  </si>
+  <si>
+    <t>png_get/D791014.png</t>
+  </si>
+  <si>
+    <t>png_get/D348165.png</t>
+  </si>
+  <si>
+    <t>png_get/D887822.png</t>
+  </si>
+  <si>
+    <t>png_get/5020274.png</t>
+  </si>
+  <si>
     <t>png_get/4779377.png</t>
   </si>
   <si>
-    <t>png_get/5020274.png</t>
-  </si>
-  <si>
-    <t>png_get/D887822.png</t>
-  </si>
-  <si>
-    <t>png_get/D348165.png</t>
-  </si>
-  <si>
-    <t>png_get/D791014.png</t>
-  </si>
-  <si>
-    <t>png_get/D419809.png</t>
-  </si>
-  <si>
-    <t>png_get/D274202.png</t>
-  </si>
-  <si>
-    <t>png_get/D310146.png</t>
-  </si>
-  <si>
-    <t>png_get/D309541.png</t>
-  </si>
-  <si>
-    <t>png_get/D300792.png</t>
-  </si>
-  <si>
-    <t>png_get/D271640.png</t>
-  </si>
-  <si>
-    <t>png_get/D822406.png</t>
-  </si>
-  <si>
-    <t>png_get/D300702.png</t>
-  </si>
-  <si>
     <t>png_get/D436840.png</t>
   </si>
   <si>
-    <t>png_get/D652659.png</t>
-  </si>
-  <si>
-    <t>png_get/D350912.png</t>
-  </si>
-  <si>
-    <t>png_get/4262873.png</t>
-  </si>
-  <si>
-    <t>png_get/D613542.png</t>
-  </si>
-  <si>
-    <t>png_get/D463320.png</t>
-  </si>
-  <si>
-    <t>png_get/D411737.png</t>
-  </si>
-  <si>
-    <t>png_get/6299118.png</t>
-  </si>
-  <si>
-    <t>png_get/D432943.png</t>
-  </si>
-  <si>
-    <t>png_get/D271258.png</t>
-  </si>
-  <si>
-    <t>png_get/4666115.png</t>
-  </si>
-  <si>
-    <t>png_get/D415366.png</t>
-  </si>
-  <si>
-    <t>png_get/4811475.png</t>
-  </si>
-  <si>
-    <t>png_get/D819486.png</t>
-  </si>
-  <si>
     <t>png_get/6941698.png</t>
   </si>
   <si>
@@ -1561,6 +1561,9 @@
     <t>png_get/D506160.png</t>
   </si>
   <si>
+    <t>png_get/D305587.png</t>
+  </si>
+  <si>
     <t>png_get/4098483.png</t>
   </si>
   <si>
@@ -1573,15 +1576,12 @@
     <t>png_get/9826846.png</t>
   </si>
   <si>
-    <t>png_get/D305587.png</t>
+    <t>png_get/4149339.png</t>
   </si>
   <si>
     <t>png_get/7287736.png</t>
   </si>
   <si>
-    <t>png_get/4149339.png</t>
-  </si>
-  <si>
     <t>png_get/D743777.png</t>
   </si>
   <si>
@@ -1594,12 +1594,12 @@
     <t>png_get/7726072.png</t>
   </si>
   <si>
+    <t>png_get/D270796.png</t>
+  </si>
+  <si>
     <t>png_get/D344867.png</t>
   </si>
   <si>
-    <t>png_get/D270796.png</t>
-  </si>
-  <si>
     <t>png_get/D871863.png</t>
   </si>
   <si>
@@ -1607,6 +1607,9 @@
   </si>
   <si>
     <t>png_get/7596905.png</t>
+  </si>
+  <si>
+    <t>png_get/6557806.png</t>
   </si>
   <si>
     <t>png_get/D856025.png</t>
@@ -2165,7 +2168,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>109</v>
@@ -2437,7 +2440,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>125</v>
@@ -2601,7 +2604,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>135</v>
@@ -2773,7 +2776,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>146</v>
@@ -2790,7 +2793,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>147</v>
@@ -2807,7 +2810,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>148</v>
@@ -3049,6 +3052,9 @@
       <c r="D64" t="s">
         <v>417</v>
       </c>
+      <c r="E64" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
@@ -3063,9 +3069,6 @@
       <c r="D65" t="s">
         <v>418</v>
       </c>
-      <c r="E65" t="s">
-        <v>526</v>
-      </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
@@ -3094,6 +3097,9 @@
       <c r="D67" t="s">
         <v>420</v>
       </c>
+      <c r="E67" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
@@ -3108,9 +3114,6 @@
       <c r="D68" t="s">
         <v>421</v>
       </c>
-      <c r="E68" t="s">
-        <v>527</v>
-      </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
@@ -3260,6 +3263,9 @@
       <c r="D78" t="s">
         <v>431</v>
       </c>
+      <c r="E78" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
@@ -3303,7 +3309,7 @@
         <v>434</v>
       </c>
       <c r="E81" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3319,6 +3325,9 @@
       <c r="D82" t="s">
         <v>435</v>
       </c>
+      <c r="E82" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
@@ -3334,7 +3343,7 @@
         <v>436</v>
       </c>
       <c r="E83" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3350,9 +3359,6 @@
       <c r="D84" t="s">
         <v>437</v>
       </c>
-      <c r="E84" t="s">
-        <v>533</v>
-      </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
@@ -3535,9 +3541,6 @@
       <c r="D97" t="s">
         <v>450</v>
       </c>
-      <c r="E97" t="s">
-        <v>534</v>
-      </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
@@ -3580,6 +3583,9 @@
       <c r="D100" t="s">
         <v>453</v>
       </c>
+      <c r="E100" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
@@ -3637,7 +3643,7 @@
         <v>457</v>
       </c>
       <c r="E104" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3724,7 +3730,7 @@
         <v>463</v>
       </c>
       <c r="E110" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3771,7 +3777,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>213</v>
@@ -3825,7 +3831,7 @@
         <v>470</v>
       </c>
       <c r="E117" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3842,7 +3848,7 @@
         <v>471</v>
       </c>
       <c r="E118" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3859,7 +3865,7 @@
         <v>472</v>
       </c>
       <c r="E119" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3876,7 +3882,7 @@
         <v>473</v>
       </c>
       <c r="E120" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3949,7 +3955,7 @@
         <v>478</v>
       </c>
       <c r="E125" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3980,7 +3986,7 @@
         <v>480</v>
       </c>
       <c r="E127" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="128" spans="1:5">
